--- a/Projects/CCTHDEMO/Data/Template_TT_after_Feb2018.xlsx
+++ b/Projects/CCTHDEMO/Data/Template_TT_after_Feb2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,46 +19,47 @@
     <sheet name="Info" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -85,6 +86,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -314,13 +316,13 @@
     <t>PROPORTIONAL</t>
   </si>
   <si>
-    <t>survey=16</t>
+    <t>Survey=428</t>
   </si>
   <si>
     <t>BY WEIGHT</t>
   </si>
   <si>
-    <t>survey=45</t>
+    <t>Survey=486</t>
   </si>
   <si>
     <t>BONUS</t>
@@ -3202,29 +3204,29 @@
   </sheetPr>
   <dimension ref="1:56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L25" activeCellId="1" sqref="K4:K8 L25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="87.1943319838057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="87.9433198380567"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -37946,7 +37948,7 @@
       <c r="AMJ56" s="124"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A1:P56"/>
   <conditionalFormatting sqref="E11">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -37971,15 +37973,15 @@
   <dimension ref="B1:AMJ21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="K4:K8 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.57085020242915"/>
@@ -38628,16 +38630,16 @@
   <dimension ref="B1:Q24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="K4:K8 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
@@ -39735,13 +39737,13 @@
   <dimension ref="B3:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="1" sqref="K4:K8 I6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -40243,21 +40245,21 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4:K8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="110.331983805668"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -40550,18 +40552,18 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="K4:K8 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="246" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="246" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="246" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="246" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="246" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="246" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="247" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="246" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="246" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="246" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="246" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="246" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="246" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
@@ -43262,12 +43264,12 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="K4:K8 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -43483,7 +43485,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="K4:K8 F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -43807,18 +43809,18 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="K4:K8 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="292" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="292" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="292" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="292" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="292" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="292" width="115.153846153846"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="292" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="292" width="116.117408906883"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="292" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="292" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="292" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="292" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCTHDEMO/Data/Template_TT_after_Feb2018.xlsx
+++ b/Projects/CCTHDEMO/Data/Template_TT_after_Feb2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,47 +19,50 @@
     <sheet name="Info" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -87,6 +90,9 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -235,7 +241,7 @@
     <t>SILVER,BRONZE</t>
   </si>
   <si>
-    <t>scene=KO Cooler;survey=16</t>
+    <t>scene=KO Cooler;survey=428</t>
   </si>
   <si>
     <t>SOVI Cooler</t>
@@ -274,7 +280,7 @@
     <t>KO Kiosk,Food Shop,On Premise,Off Premise</t>
   </si>
   <si>
-    <t>scene=KO Lego Rack,KO White Rack,KO BC Rack Center,KO PM Rack;survey=45</t>
+    <t>scene=KO Lego Rack,KO White Rack,KO BC Rack Center,KO PM Rack;survey=486</t>
   </si>
   <si>
     <t>SOVI Rack</t>
@@ -633,7 +639,7 @@
     <t>All Facings (Including Irrelevant and Empty)</t>
   </si>
   <si>
-    <t>RGB019,8851959140949,8851959192085,8851959181423</t>
+    <t>8851959122921,8851959140949,8851959192085,8851959181423</t>
   </si>
   <si>
     <t>brand_name</t>
@@ -651,13 +657,13 @@
     <t>Coke,Fanta,Sprite,A&amp;W,Schweppes,Pepsi,Mirinda,7 Up,MountainDew,EST Cola,EST play,Big Cola,Coke light,Coke Zero/ No Sugar,Big Aqua Sparkling Lime,Big Aqua Sparkling Peach,Big Coconut,Big Cola Chocolate,Big Fresh,Big Grape,Big Lemon Lime,Big Lime Soda,Big Mixed Fruit,Big Orange,Big Strawberry,EST clear,EST Orange,EST Sugar Free,Pepsi Max,Pepsi Vivo</t>
   </si>
   <si>
-    <t>RGB003,8851959127018,8851959158012,8851959156018,8851959144015,RGB019,8851959140949,8851959192085,8851959181423,8851959139714</t>
+    <t>RGB003,8851959127018,8851959158012,8851959156018,8851959144015,8851959122921,8851959140949,8851959192085,8851959181423,8851959139714</t>
   </si>
   <si>
     <t>All Facings (Excluding Empty)</t>
   </si>
   <si>
-    <t>RGB003,8851959127018,8851959158012,8851959156018,8851959144015,RGB019,8851959140949,8851959192085,8851959139714</t>
+    <t>RGB003,8851959127018,8851959158012,8851959156018,8851959144015,8851959122921,8851959140949,8851959192085,8851959139714,8851959181423</t>
   </si>
   <si>
     <t>All Facings (Excluding Irrelevant, Empty, Alcohol)</t>
@@ -3204,29 +3210,29 @@
   </sheetPr>
   <dimension ref="1:56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="87.9433198380567"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="90.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -37948,7 +37954,7 @@
       <c r="AMJ56" s="124"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P56"/>
+  <autoFilter ref="A1:P1"/>
   <conditionalFormatting sqref="E11">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -37972,16 +37978,16 @@
   </sheetPr>
   <dimension ref="B1:AMJ21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.57085020242915"/>
@@ -38566,7 +38572,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38636,10 +38642,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
@@ -39743,7 +39749,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -40245,21 +40251,21 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.2388663967611"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="110.331983805668"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="113.331983805668"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -40333,7 +40339,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="232" t="s">
         <v>59</v>
       </c>
@@ -40467,7 +40473,7 @@
       </c>
       <c r="K6" s="231"/>
     </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="239" t="s">
         <v>55</v>
       </c>
@@ -40500,7 +40506,7 @@
       </c>
       <c r="K7" s="231"/>
     </row>
-    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="231" t="s">
         <v>63</v>
       </c>
@@ -40558,12 +40564,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="246" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="246" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="246" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="246" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="246" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="246" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="247" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="246" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="246" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="246" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="246" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="246" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="246" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
@@ -43269,7 +43275,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -43815,12 +43821,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="292" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="292" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="292" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="292" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="292" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="292" width="116.117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="292" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="292" width="119.331983805668"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="292" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="292" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="292" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="292" width="9.10526315789474"/>
   </cols>
   <sheetData>
